--- a/IRCS3_local/IRCS4_build/input_excel/input trad con.xlsx
+++ b/IRCS3_local/IRCS4_build/input_excel/input trad con.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\run control 4\input_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test Run Python\IRCS4_build\input_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B4BD3E-05EF-48E6-889F-B4332E12552A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE924D3E-2AB3-4965-A2AE-59F6D3B0A52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3E507947-667D-48FC-8161-25FD0280FDA7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{3E507947-667D-48FC-8161-25FD0280FDA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Filter UVSG" sheetId="5" r:id="rId5"/>
     <sheet name="Code" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="103">
   <si>
     <t>Name</t>
   </si>
@@ -70,27 +70,12 @@
     <t>UVSG File Name</t>
   </si>
   <si>
-    <t>ID0002_AZTRAD_G_D_IF-IF_IFRS-EXPNODETAILS-EOQ_20250630</t>
-  </si>
-  <si>
     <t>Data_Extraction_run142TRAD_Con</t>
   </si>
   <si>
     <t>Data_Extraction_run142UVSG</t>
   </si>
   <si>
-    <t>ID0002_AZTRAD_G_D_IF-IF_IFRS-NONECASSUMPNODETAILS-EOQ_20250630</t>
-  </si>
-  <si>
-    <t>ID0002_AZTRAD_G_D_IF-IF_IFRS-ECASSUMPEQUITYLEVEL-EOQ_20250630</t>
-  </si>
-  <si>
-    <t>ID0002_AZTRAD_G_D_IF-IF_IFRS-ECASSUMPINTLEVEL-EOQ_20250630</t>
-  </si>
-  <si>
-    <t>ID0002_AZTRAD_G_D_IF-IF_IFRS-ECASSUMPOTHERCURRENCY-EOQ_20250630</t>
-  </si>
-  <si>
     <t>Data_Extraction_run4TRAD_Con</t>
   </si>
   <si>
@@ -121,9 +106,6 @@
     <t>Data_Extraction_run40TRAD_Con</t>
   </si>
   <si>
-    <t>ID0002_AZTRAD_E_D_NB_IFRS-BE-BOQ_20250630</t>
-  </si>
-  <si>
     <t>SUM_BE</t>
   </si>
   <si>
@@ -166,18 +148,12 @@
     <t>ID0002_AZTRAD_G_D_IF-IF_IFRS-EXPOTHER-EOQ_20250930</t>
   </si>
   <si>
-    <t>Data_Extraction_run32TRAD_Con</t>
-  </si>
-  <si>
     <t>ID0002_AZTRAD_G_D_IF-IF_IFRS-EXPOTHER-EOQ_20251231</t>
   </si>
   <si>
     <t>Data_Extraction_run42TRAD_Con</t>
   </si>
   <si>
-    <t>ID0002_AZTRAD_G_D_NB_IFRS-EXPVARIANCE-EOQ_20250630</t>
-  </si>
-  <si>
     <t>SUM_EXPOTHER</t>
   </si>
   <si>
@@ -199,15 +175,6 @@
     <t>Data_Extraction_run43TRAD_Con</t>
   </si>
   <si>
-    <t>ID0002_AZTRAD_G_D_NB_IFRS-NFA-EOQ_20250630</t>
-  </si>
-  <si>
-    <t>SUM_NONECASSUMPOTHER</t>
-  </si>
-  <si>
-    <t>ID0002_AZTRAD_G_D_NB_IFRS-FA-EOQ_20250630</t>
-  </si>
-  <si>
     <t>Data_Extraction_run4TRAD_Con - Copy</t>
   </si>
   <si>
@@ -229,15 +196,9 @@
     <t>output_path</t>
   </si>
   <si>
-    <t>D:\Python\run control 4\output</t>
-  </si>
-  <si>
     <t>output_filename</t>
   </si>
   <si>
-    <t>trad con.xlsx</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -256,9 +217,6 @@
     <t>AZTRAD ARGO File Path</t>
   </si>
   <si>
-    <t>P:\13. Employee Folder\IFRS17\2025\Q2\09. ARGO\CF File\AZTRAD\Conven\</t>
-  </si>
-  <si>
     <t>AZTRAD ARGO File Path - Old</t>
   </si>
   <si>
@@ -268,15 +226,9 @@
     <t>AZTRAD Extract File Path</t>
   </si>
   <si>
-    <t>P:\13. Employee Folder\IFRS17\2025\Q2\03. RAFM\Extraction\TRAD\Conventional\</t>
-  </si>
-  <si>
     <t>UL Extract File Path</t>
   </si>
   <si>
-    <t>P:\13. Employee Folder\IFRS17\2025\Q2\03. RAFM\Extraction\UVSG\</t>
-  </si>
-  <si>
     <t>prm_inc</t>
   </si>
   <si>
@@ -337,16 +289,67 @@
     <t>lrc_cl_inv_ann</t>
   </si>
   <si>
-    <t>D:\Python\run control 4\Input\CF File\AZTRAD\Conven</t>
-  </si>
-  <si>
-    <t>D:\Python\run control 4\Input\03. RAFM\Extraction\TRAD\Conventional</t>
-  </si>
-  <si>
-    <t>D:\Python\run control 4\Input\03. RAFM\Extraction\UVSG\convent</t>
-  </si>
-  <si>
-    <t>D:\Python\run control 4\Input\RAFM MANUAL\RAFM Manual Trad Con.xlsx</t>
+    <t>P:\13. Employee Folder\IFRS17\2025\Q3\09. ARGO\CF File\AZTRAD\Conven\</t>
+  </si>
+  <si>
+    <t>P:\13. Employee Folder\IFRS17\2025\Q3\03. RAFM\Extraction\TRAD\Conventional\</t>
+  </si>
+  <si>
+    <t>P:\13. Employee Folder\IFRS17\2025\Q3\03. RAFM\Extraction\UVSG\</t>
+  </si>
+  <si>
+    <t>P:\13. Employee Folder\Christo\control 4\Q3 25\trad con\ARGO</t>
+  </si>
+  <si>
+    <t>P:\13. Employee Folder\Christo\control 4\Q3 25\trad con\RAFM</t>
+  </si>
+  <si>
+    <t>P:\13. Employee Folder\Christo\control 4\Q3 25\trad con\UVSG</t>
+  </si>
+  <si>
+    <t>D:\Test Run Python\IRCS4_build\RAFM MANUAL\RAFM Manual trad con.xlsx</t>
+  </si>
+  <si>
+    <t>P:\13. Employee Folder\Christo\control 4\Q3 25\trad con</t>
+  </si>
+  <si>
+    <t>trad con Q3 25.xlsx</t>
+  </si>
+  <si>
+    <t>Data_Extraction_run2TRAD_Con</t>
+  </si>
+  <si>
+    <t>Data_Extraction_run2UVSG</t>
+  </si>
+  <si>
+    <t>ID0002_AZTRAD_G_D_IF-IF_IFRS-EXPNODETAILS-EOQ_20250930</t>
+  </si>
+  <si>
+    <t>ID0002_AZTRAD_G_D_IF-IF_IFRS-NONECASSUMPNODETAILS-EOQ_20250930</t>
+  </si>
+  <si>
+    <t>ID0002_AZTRAD_G_D_IF-IF_IFRS-ECASSUMPEQUITYLEVEL-EOQ_20250930</t>
+  </si>
+  <si>
+    <t>ID0002_AZTRAD_G_D_IF-IF_IFRS-ECASSUMPINTLEVEL-EOQ_20250930</t>
+  </si>
+  <si>
+    <t>ID0002_AZTRAD_G_D_IF-IF_IFRS-ECASSUMPOTHERCURRENCY-EOQ_20250930</t>
+  </si>
+  <si>
+    <t>ID0002_AZTRAD_E_D_NB_IFRS-BE-BOQ_20250930</t>
+  </si>
+  <si>
+    <t>ID0002_AZTRAD_G_D_NB_IFRS-EXPVARIANCE-EOQ_20250930</t>
+  </si>
+  <si>
+    <t>ID0002_AZTRAD_G_D_NB_IFRS-NFA-EOQ_20250930</t>
+  </si>
+  <si>
+    <t>ID0002_AZTRAD_G_D_NB_IFRS-FA-EOQ_20250930</t>
+  </si>
+  <si>
+    <t>SUM_NONCECASSUMPOTHER</t>
   </si>
 </sst>
 </file>
@@ -431,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -446,6 +449,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -780,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3533F1D-F1D9-44A7-93AE-BE7365137111}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -794,15 +798,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B1" s="7">
-        <v>45809</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B2" s="8">
         <v>2025</v>
@@ -810,15 +814,15 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B3" s="8">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B4" s="8">
         <v>30</v>
@@ -826,45 +830,49 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="8">
-        <v>20250630</v>
-      </c>
-      <c r="C5" s="6">
+        <v>56</v>
+      </c>
+      <c r="B5" s="10">
+        <v>20250930</v>
+      </c>
+      <c r="C5" s="10">
         <v>20230930</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>71</v>
+      <c r="A6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>73</v>
+      <c r="A7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>75</v>
-      </c>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>77</v>
+      <c r="A9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -877,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50CFD0D-886E-451A-8337-46C7EB9A8542}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:T2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -888,64 +896,64 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -1020,7 +1028,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1042,7 +1050,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1050,7 +1058,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1058,7 +1066,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1066,23 +1074,23 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1097,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5DFDF9-BC78-4956-BABA-B2D1AE47F4C2}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection sqref="A1:D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1110,16 +1118,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1127,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D2" s="3">
         <v>2025</v>
@@ -1141,10 +1149,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D3" s="3">
         <v>2025</v>
@@ -1155,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D4" s="3">
         <v>2025</v>
@@ -1169,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D5" s="3">
         <v>2025</v>
@@ -1183,10 +1191,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D6" s="3">
         <v>2025</v>
@@ -1197,13 +1205,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1211,13 +1219,13 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1225,13 +1233,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1239,27 +1247,25 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>0</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1267,13 +1273,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1281,13 +1287,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1295,13 +1301,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1309,13 +1315,13 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1323,13 +1329,13 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1337,13 +1343,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1354,10 +1360,10 @@
         <v>41</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1365,27 +1371,25 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>0</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1393,13 +1397,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1407,13 +1411,13 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1421,13 +1425,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1435,27 +1439,25 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>0</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="B25" s="1"/>
       <c r="C25" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1463,13 +1465,13 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C26" s="3">
         <v>2025</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1485,26 +1487,29 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1512,10 +1517,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D2" s="3">
         <v>2025</v>
@@ -1526,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D3" s="3">
         <v>2025</v>
@@ -1540,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D4" s="3">
         <v>2025</v>
@@ -1554,10 +1559,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D5" s="3">
         <v>2025</v>
@@ -1568,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D6" s="3">
         <v>2025</v>
@@ -1709,8 +1714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE40447-EFD9-4533-9619-0FD56D9BC4CA}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1733,161 +1738,161 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>41</v>
@@ -1896,73 +1901,73 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="C26" s="3"/>
     </row>

--- a/IRCS3_local/IRCS4_build/input_excel/input trad con.xlsx
+++ b/IRCS3_local/IRCS4_build/input_excel/input trad con.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test Run Python\IRCS4_build\input_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\13. Employee Folder\Christo\control 4\Q3 25\input excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE924D3E-2AB3-4965-A2AE-59F6D3B0A52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6413ED-C59A-4C77-8424-752669085D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{3E507947-667D-48FC-8161-25FD0280FDA7}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="103">
   <si>
     <t>Name</t>
   </si>
@@ -130,9 +130,6 @@
     <t>ID0002_AZTRAD_B_D_NB_IFRS-UNWINDINGPRJCF-BOQ_20251231</t>
   </si>
   <si>
-    <t>Data_Extraction_run41TRAD_Con</t>
-  </si>
-  <si>
     <t>ID0002_AZTRAD_G_D_IF-IF_IFRS-EXPOTHER-EOQ_20250331</t>
   </si>
   <si>
@@ -349,7 +346,10 @@
     <t>ID0002_AZTRAD_G_D_NB_IFRS-FA-EOQ_20250930</t>
   </si>
   <si>
-    <t>SUM_NONCECASSUMPOTHER</t>
+    <t>SUM_NONECASSUMPOTHER</t>
+  </si>
+  <si>
+    <t>C_sar</t>
   </si>
 </sst>
 </file>
@@ -407,7 +407,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -430,6 +430,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -449,7 +460,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -784,6 +795,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3533F1D-F1D9-44A7-93AE-BE7365137111}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -798,7 +810,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="7">
         <v>45901</v>
@@ -806,7 +818,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="8">
         <v>2025</v>
@@ -814,7 +826,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="8">
         <v>9</v>
@@ -822,7 +834,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="8">
         <v>30</v>
@@ -830,49 +842,49 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="6">
+        <v>20250930</v>
+      </c>
+      <c r="C5" s="6">
+        <v>20230930</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="10">
-        <v>20250930</v>
-      </c>
-      <c r="C5" s="10">
-        <v>20230930</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="B6" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B7" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B10" s="6" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -883,6 +895,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50CFD0D-886E-451A-8337-46C7EB9A8542}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -896,64 +909,64 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -1025,10 +1038,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C86935E8-9509-4E4E-B853-139B75EE5E09}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1050,7 +1064,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1058,7 +1072,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1066,7 +1080,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1074,23 +1088,23 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1103,375 +1117,531 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5DFDF9-BC78-4956-BABA-B2D1AE47F4C2}">
-  <dimension ref="A1:D26"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A28" sqref="A28:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>91</v>
+      <c r="E1" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="3">
         <v>2025</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
       <c r="C3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="3">
         <v>2025</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
       <c r="C4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="3">
         <v>2025</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
       <c r="C5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="3">
         <v>2025</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
       <c r="C6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="3">
         <v>2025</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
       <c r="C8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
       <c r="C9" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
       <c r="C11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
       <c r="C12" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
       <c r="C13" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
       <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1">
+        <v>0</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
       <c r="C20" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>0</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>44</v>
+      <c r="B26" s="1">
+        <v>0</v>
       </c>
       <c r="C26" s="3">
         <v>2025</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="str">
+        <f>A12&amp;"_ori"</f>
+        <v>Data_Extraction_run11TRAD_azcp_Con_ori</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="str">
+        <f t="shared" ref="A29:A30" si="0">A13&amp;"_ori"</f>
+        <v>Data_Extraction_run21TRAD_Con_ori</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Data_Extraction_run31TRAD_Con_ori</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="str">
+        <f>A15&amp;"_ori"</f>
+        <v>_ori</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1484,223 +1654,263 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8071C82-16E8-4132-9192-2C8D7113D0E0}">
-  <dimension ref="A1:D26"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>92</v>
+      <c r="E1" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="3">
         <v>2025</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
       <c r="C3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="3">
         <v>2025</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
       <c r="C4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="3">
         <v>2025</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
       <c r="C5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="3">
         <v>2025</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
       <c r="C6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="3">
         <v>2025</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1712,10 +1922,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE40447-EFD9-4533-9619-0FD56D9BC4CA}">
-  <dimension ref="A1:C26"/>
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1738,18 +1949,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -1760,7 +1971,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -1771,7 +1982,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
@@ -1782,7 +1993,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
@@ -1829,7 +2040,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>21</v>
@@ -1867,112 +2078,135 @@
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="str">
+        <f>B12&amp;"_ori"</f>
+        <v>Data_Extraction_run11TRAD_azcp_Con_ori</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="str">
+        <f>B13&amp;"_ori"</f>
+        <v>Data_Extraction_run21TRAD_Con_ori</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="str">
+        <f>B14&amp;"_ori"</f>
+        <v>Data_Extraction_run31TRAD_Con_ori</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="str">
+        <f>B15&amp;"_ori"</f>
+        <v>_ori</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K000000 Internal&amp;1#_x000D_</oddHeader>
   </headerFooter>
